--- a/data/trans_orig/P6513-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E33394-3A5F-4AF2-A339-6B67228EE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EFAB8B-A00D-4C6E-B2CC-E22C593CFBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53EB2F0A-77FF-4BE9-8E17-0BACC3104899}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B16559D5-9BA3-4A42-9E77-FA0DB2CE4032}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>29,08%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>21,41%</t>
@@ -146,16 +146,16 @@
     <t>15,26%</t>
   </si>
   <si>
-    <t>28,33%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>18,4%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,322 +197,316 @@
     <t>17,88%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>29,87%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A310C3FB-E9E3-47C1-BBD8-52BE858E1690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2AD2D4-0D35-4F4C-85BE-DB83E3CF9C27}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1497,7 +1491,7 @@
         <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1559,13 @@
         <v>84911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -1580,13 +1574,13 @@
         <v>76161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>153</v>
@@ -1595,13 +1589,13 @@
         <v>161072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1610,13 @@
         <v>163226</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>117</v>
@@ -1631,13 +1625,13 @@
         <v>120121</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>273</v>
@@ -1646,13 +1640,13 @@
         <v>283347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1661,13 @@
         <v>112060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1682,13 +1676,13 @@
         <v>66213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -1697,13 +1691,13 @@
         <v>178272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1712,13 @@
         <v>45112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -1733,13 +1727,13 @@
         <v>27682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -1748,13 +1742,13 @@
         <v>72794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1816,13 @@
         <v>370194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -1852,13 +1846,13 @@
         <v>619480</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1867,13 @@
         <v>665721</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>403</v>
@@ -1888,13 +1882,13 @@
         <v>421043</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1042</v>
@@ -1903,13 +1897,13 @@
         <v>1086764</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1918,13 @@
         <v>577184</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>235</v>
@@ -1939,13 +1933,13 @@
         <v>246908</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>788</v>
@@ -1954,10 +1948,10 @@
         <v>824091</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>149</v>
@@ -1978,10 +1972,10 @@
         <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -1990,13 +1984,13 @@
         <v>109000</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>383</v>
@@ -2005,13 +1999,13 @@
         <v>400136</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EFAB8B-A00D-4C6E-B2CC-E22C593CFBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ECB43C-A7D4-4705-9658-48ED4B54EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B16559D5-9BA3-4A42-9E77-FA0DB2CE4032}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FFA694E-33C0-4613-80D4-4E686DEF7847}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,439 +74,442 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2AD2D4-0D35-4F4C-85BE-DB83E3CF9C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1B54B5-56B2-4775-B419-F4735A5944F1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,13 +1488,13 @@
         <v>237098</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1550,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1562,13 @@
         <v>84911</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -1574,13 +1577,13 @@
         <v>76161</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>153</v>
@@ -1589,13 +1592,13 @@
         <v>161072</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1613,13 @@
         <v>163226</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>117</v>
@@ -1625,13 +1628,13 @@
         <v>120121</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>273</v>
@@ -1640,13 +1643,13 @@
         <v>283347</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1664,13 @@
         <v>112060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1676,13 +1679,13 @@
         <v>66213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -1691,13 +1694,13 @@
         <v>178272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1715,13 @@
         <v>45112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -1727,13 +1730,13 @@
         <v>27682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -1742,13 +1745,13 @@
         <v>72794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1819,13 @@
         <v>370194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -1831,13 +1834,13 @@
         <v>249287</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>592</v>
@@ -1846,13 +1849,13 @@
         <v>619480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1870,13 @@
         <v>665721</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>403</v>
@@ -1882,13 +1885,13 @@
         <v>421043</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>1042</v>
@@ -1897,13 +1900,13 @@
         <v>1086764</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1921,13 @@
         <v>577184</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>235</v>
@@ -1933,13 +1936,13 @@
         <v>246908</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>788</v>
@@ -1948,13 +1951,13 @@
         <v>824091</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1972,13 @@
         <v>291137</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -1984,13 +1987,13 @@
         <v>109000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>383</v>
@@ -1999,13 +2002,13 @@
         <v>400136</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ECB43C-A7D4-4705-9658-48ED4B54EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2051DD88-0208-404B-AE6D-E258E5C888DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FFA694E-33C0-4613-80D4-4E686DEF7847}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E310F7C-50DA-413B-B673-347C99B6D375}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>29,08%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,139 +164,139 @@
     <t>18,4%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>12,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,37 +305,37 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>26,25%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
   </si>
   <si>
     <t>41,4%</t>
@@ -344,172 +344,175 @@
     <t>35,62%</t>
   </si>
   <si>
-    <t>47,16%</t>
+    <t>47,65%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>32,38%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>29,9%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1B54B5-56B2-4775-B419-F4735A5944F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3CA82-26EF-4695-B930-F21DA6BC03E9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1488,13 +1491,13 @@
         <v>237098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1652,7 @@
         <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1667,13 @@
         <v>112060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1679,13 +1682,13 @@
         <v>66213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -1694,13 +1697,13 @@
         <v>178272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1718,13 @@
         <v>45112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -1730,13 +1733,13 @@
         <v>27682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -1745,13 +1748,13 @@
         <v>72794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1822,13 @@
         <v>370194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -1834,13 +1837,13 @@
         <v>249287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>592</v>
@@ -1849,13 +1852,13 @@
         <v>619480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1873,13 @@
         <v>665721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>403</v>
@@ -1885,13 +1888,13 @@
         <v>421043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1042</v>
@@ -1900,13 +1903,13 @@
         <v>1086764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1924,13 @@
         <v>577184</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>235</v>
@@ -1936,13 +1939,13 @@
         <v>246908</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>788</v>
@@ -1951,13 +1954,13 @@
         <v>824091</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1975,13 @@
         <v>291137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -1987,13 +1990,13 @@
         <v>109000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>383</v>
@@ -2002,13 +2005,13 @@
         <v>400136</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2051DD88-0208-404B-AE6D-E258E5C888DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B77F140E-7298-4ED4-BFFB-B78EFD6F46FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E310F7C-50DA-413B-B673-347C99B6D375}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2A31A4BB-0E23-4400-A51D-D3E8F3657544}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3CA82-26EF-4695-B930-F21DA6BC03E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B5CE7-FE75-4D41-B427-32C58277FC9F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1781,7 +1781,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
